--- a/benchmark_results/CP2K_QMMM_performance.xlsx
+++ b/benchmark_results/CP2K_QMMM_performance.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8400" yWindow="440" windowWidth="29920" windowHeight="21780" tabRatio="500" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="8400" yWindow="440" windowWidth="29920" windowHeight="21780" tabRatio="500" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="LiH-HFX_old" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="QM test-1" sheetId="14" r:id="rId2"/>
-    <sheet name="QM test-4" sheetId="15" r:id="rId3"/>
-    <sheet name="MM test-1" sheetId="7" r:id="rId4"/>
-    <sheet name="MM test-4" sheetId="16" r:id="rId5"/>
+    <sheet name="Test-QM-20" sheetId="14" r:id="rId2"/>
+    <sheet name="Test-QM-77" sheetId="15" r:id="rId3"/>
+    <sheet name="Test-MM-30928" sheetId="7" r:id="rId4"/>
+    <sheet name="Test-MM-297610" sheetId="16" r:id="rId5"/>
     <sheet name="Sandbox" sheetId="9" r:id="rId6"/>
     <sheet name="Bestresults_combined" sheetId="17" r:id="rId7"/>
   </sheets>
@@ -245,9 +245,6 @@
     <t>Speedup computed relative to 2 node MPI (1 thread result)</t>
   </si>
   <si>
-    <t>ARCHER CP2K 6.1 Scale-QM test-1, best of 3 runs</t>
-  </si>
-  <si>
     <t>Pure MPI performance for testing only</t>
   </si>
   <si>
@@ -255,9 +252,6 @@
   </si>
   <si>
     <t>CP2K time (s)</t>
-  </si>
-  <si>
-    <t>ARCHER CP2K 6.1 Scale-MM test-1, best of 3 runs</t>
   </si>
   <si>
     <t xml:space="preserve">First step cost </t>
@@ -278,18 +272,6 @@
     <t>approx percent in startup</t>
   </si>
   <si>
-    <t>2 nodes:  MM and test-1, 48 MPI, 1 OpenMP threads</t>
-  </si>
-  <si>
-    <t>2 nodes: QM and test-1, 48 MPI, 1 OpenMP threads</t>
-  </si>
-  <si>
-    <t>8 nodes: QM and test-1, 32 MPI, 6 OpenMP threads</t>
-  </si>
-  <si>
-    <t>8 nodes:  MM and test-1, 32 MPI, 6 OpenMP threads</t>
-  </si>
-  <si>
     <t>CP2K time (seconds)</t>
   </si>
   <si>
@@ -305,37 +287,55 @@
     <t>Startup percentage</t>
   </si>
   <si>
-    <t>ARCHER CP2K 6.1 Scale-QM test-4, best of 3 runs</t>
-  </si>
-  <si>
-    <t>ARCHER CP2K 6.1 Scale-MM test-4, best of 3 runs</t>
-  </si>
-  <si>
     <t>Speedup computed relative to 4 node MPI (1 thread result)</t>
-  </si>
-  <si>
-    <t>QM test-1</t>
-  </si>
-  <si>
-    <t>QM test-4</t>
-  </si>
-  <si>
-    <t>MM test-1</t>
-  </si>
-  <si>
-    <t>MM test-4</t>
-  </si>
-  <si>
-    <t>4 nodes:  MM and test-4, 96 MPI, 1 OpenMP threads</t>
-  </si>
-  <si>
-    <t>2 nodes: MM and test-4, 48 MPI, 1 OpenMP threads</t>
   </si>
   <si>
     <t xml:space="preserve">Back of the envelope computation to estimate how many steps to run in order to reduce the startup costs to a sensible amount  </t>
   </si>
   <si>
     <t>Not needed for plotting results etc but used to get estimates of wallclock times etc required for running on ARCHER</t>
+  </si>
+  <si>
+    <t>ARCHER CP2K 6.1 Test-QM-20, best of 3 runs</t>
+  </si>
+  <si>
+    <t>ARCHER CP2K 6.1 Test-MM-297610 , best of 3 runs</t>
+  </si>
+  <si>
+    <t>2 nodes:Test-QM-20, 48 MPI, 1 OpenMP threads</t>
+  </si>
+  <si>
+    <t>8 nodes: Test-QM-20, 32 MPI, 6 OpenMP threads</t>
+  </si>
+  <si>
+    <t>2 nodes:  Test-MM-30928, 48 MPI, 1 OpenMP threads</t>
+  </si>
+  <si>
+    <t>8 nodes:  Test-MM-30928, 32 MPI, 6 OpenMP threads</t>
+  </si>
+  <si>
+    <t>2 nodes: Test-MM-297610, 48 MPI, 1 OpenMP threads</t>
+  </si>
+  <si>
+    <t>4 nodes:  Test-MM-297610, 96 MPI, 1 OpenMP threads</t>
+  </si>
+  <si>
+    <t>Test-QM-20</t>
+  </si>
+  <si>
+    <t>Test-QM-77</t>
+  </si>
+  <si>
+    <t>Test-MM-30928</t>
+  </si>
+  <si>
+    <t>Test-MM-297610</t>
+  </si>
+  <si>
+    <t>ARCHER CP2K 6.1 Test-MM-30928, best of 3 runs</t>
+  </si>
+  <si>
+    <t>ARCHER CP2K 6.1 Test-QM-77, best of 3 runs</t>
   </si>
 </sst>
 </file>
@@ -1624,11 +1624,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2094867512"/>
-        <c:axId val="2095467720"/>
+        <c:axId val="2143466952"/>
+        <c:axId val="2143460312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2094867512"/>
+        <c:axId val="2143466952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1656,7 +1656,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2095467720"/>
+        <c:crossAx val="2143460312"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1664,7 +1664,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2095467720"/>
+        <c:axId val="2143460312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1693,7 +1693,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2094867512"/>
+        <c:crossAx val="2143466952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1757,7 +1757,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Scale-QM test-4 showing effect of removing startup costs (dashed lines)</a:t>
+              <a:t> Test-QM-77 showing effect of removing startup costs (dashed lines)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1801,7 +1801,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'QM test-4'!$A$5:$A$12</c:f>
+              <c:f>'Test-QM-77'!$A$5:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1834,7 +1834,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'QM test-4'!$C$5:$C$12</c:f>
+              <c:f>'Test-QM-77'!$C$5:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1871,7 +1871,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>2TH</c:v>
+            <c:v>2 threads per process</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400">
@@ -1896,7 +1896,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'QM test-4'!$A$5:$A$12</c:f>
+              <c:f>'Test-QM-77'!$A$5:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1929,7 +1929,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'QM test-4'!$D$5:$D$12</c:f>
+              <c:f>'Test-QM-77'!$D$5:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1966,7 +1966,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>4TH</c:v>
+            <c:v>4 threads per process</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400">
@@ -1991,7 +1991,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'QM test-4'!$A$5:$A$12</c:f>
+              <c:f>'Test-QM-77'!$A$5:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2024,7 +2024,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'QM test-4'!$E$5:$E$12</c:f>
+              <c:f>'Test-QM-77'!$E$5:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2061,7 +2061,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>6TH</c:v>
+            <c:v>6 threads per process</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400">
@@ -2086,7 +2086,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'QM test-4'!$A$5:$A$12</c:f>
+              <c:f>'Test-QM-77'!$A$5:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2119,7 +2119,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'QM test-4'!$F$5:$F$12</c:f>
+              <c:f>'Test-QM-77'!$F$5:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2156,7 +2156,7 @@
           <c:idx val="5"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>NS MPI</c:v>
+            <c:v>No startup costs, MPI</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400">
@@ -2184,7 +2184,7 @@
           </c:dPt>
           <c:xVal>
             <c:numRef>
-              <c:f>'QM test-4'!$A$5:$A$12</c:f>
+              <c:f>'Test-QM-77'!$A$5:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2217,7 +2217,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'QM test-4'!$K$5:$K$12</c:f>
+              <c:f>'Test-QM-77'!$K$5:$K$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2254,7 +2254,7 @@
           <c:idx val="4"/>
           <c:order val="5"/>
           <c:tx>
-            <c:v>NS 2TH</c:v>
+            <c:v>No startup costs, 2 threads per process</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400">
@@ -2278,7 +2278,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'QM test-4'!$A$5:$A$12</c:f>
+              <c:f>'Test-QM-77'!$A$5:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2311,7 +2311,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'QM test-4'!$L$5:$L$12</c:f>
+              <c:f>'Test-QM-77'!$L$5:$L$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2348,7 +2348,7 @@
           <c:idx val="6"/>
           <c:order val="6"/>
           <c:tx>
-            <c:v>NS 4TH</c:v>
+            <c:v>No startup costs, 4 threads per process</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400">
@@ -2372,7 +2372,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'QM test-4'!$A$5:$A$12</c:f>
+              <c:f>'Test-QM-77'!$A$5:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2405,7 +2405,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'QM test-4'!$M$5:$M$12</c:f>
+              <c:f>'Test-QM-77'!$M$5:$M$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2442,7 +2442,7 @@
           <c:idx val="7"/>
           <c:order val="7"/>
           <c:tx>
-            <c:v>NS 6TH</c:v>
+            <c:v>No startup costs, 6 threads per process</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400">
@@ -2466,7 +2466,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'QM test-4'!$A$5:$A$12</c:f>
+              <c:f>'Test-QM-77'!$A$5:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2499,7 +2499,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'QM test-4'!$N$5:$N$12</c:f>
+              <c:f>'Test-QM-77'!$N$5:$N$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2540,11 +2540,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2094055464"/>
-        <c:axId val="2094047944"/>
+        <c:axId val="2080045000"/>
+        <c:axId val="2080052536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2094055464"/>
+        <c:axId val="2080045000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="64.0"/>
@@ -2591,13 +2591,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2094047944"/>
+        <c:crossAx val="2080052536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2094047944"/>
+        <c:axId val="2080052536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2648,7 +2648,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2094055464"/>
+        <c:crossAx val="2080045000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2659,10 +2659,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.797726831468607"/>
+          <c:x val="0.652023220011571"/>
           <c:y val="0.110856189444721"/>
-          <c:w val="0.168937568701348"/>
-          <c:h val="0.246014255188362"/>
+          <c:w val="0.314641158647199"/>
+          <c:h val="0.322222433627023"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -2731,16 +2731,17 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1400"/>
-              <a:t>ARCHER Scale-QM</a:t>
+              <a:t>ARCHER Test-QM-77 </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1400" baseline="0"/>
-              <a:t> test-4 startup percentage for best timing obtained</a:t>
+              <a:t>startup percentage for best timing obtained</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2753,7 +2754,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>QM test-4</c:v>
+            <c:v>Test-QM-77</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400">
@@ -2778,7 +2779,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'QM test-4'!$A$49:$A$56</c:f>
+              <c:f>'Test-QM-77'!$A$49:$A$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2811,7 +2812,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'QM test-4'!$C$49:$C$56</c:f>
+              <c:f>'Test-QM-77'!$C$49:$C$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2852,11 +2853,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2039961928"/>
-        <c:axId val="2039969544"/>
+        <c:axId val="2080086168"/>
+        <c:axId val="2080093752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2039961928"/>
+        <c:axId val="2080086168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2881,6 +2882,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2900,12 +2902,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2039969544"/>
+        <c:crossAx val="2080093752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2039969544"/>
+        <c:axId val="2080093752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2931,6 +2933,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2950,7 +2953,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2039961928"/>
+        <c:crossAx val="2080086168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2961,8 +2964,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.757524769254836"/>
-          <c:y val="0.216967089443161"/>
+          <c:x val="0.759180398393909"/>
+          <c:y val="0.163074873874299"/>
           <c:w val="0.169627548625958"/>
           <c:h val="0.129538875005894"/>
         </c:manualLayout>
@@ -3033,16 +3036,17 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>ARCHER Scale-QM</a:t>
+              <a:t>ARCHER Test-QM-77 </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> test-4 best results</a:t>
+              <a:t>best results</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3055,7 +3059,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>QM test-4</c:v>
+            <c:v>Test-QM-77</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400">
@@ -3081,6 +3085,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -3103,6 +3108,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -3125,6 +3131,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -3147,6 +3154,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -3169,6 +3177,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -3191,6 +3200,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -3213,6 +3223,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -3235,6 +3246,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -3276,7 +3288,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'QM test-4'!$A$49:$A$56</c:f>
+              <c:f>'Test-QM-77'!$A$49:$A$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3309,7 +3321,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'QM test-4'!$B$49:$B$56</c:f>
+              <c:f>'Test-QM-77'!$B$49:$B$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3350,11 +3362,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2039110392"/>
-        <c:axId val="2039115992"/>
+        <c:axId val="2146016680"/>
+        <c:axId val="2146022280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2039110392"/>
+        <c:axId val="2146016680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3379,6 +3391,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3398,12 +3411,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2039115992"/>
+        <c:crossAx val="2146022280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2039115992"/>
+        <c:axId val="2146022280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3434,6 +3447,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3453,7 +3467,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2039110392"/>
+        <c:crossAx val="2146016680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3540,13 +3554,24 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Scale-MM test-1</a:t>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="mr-IN" baseline="0"/>
+              <a:t>Test-MM-30928</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.353150796054339"/>
+          <c:y val="0.0178173719376392"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3584,7 +3609,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'MM test-1'!$A$5:$A$12</c:f>
+              <c:f>'Test-MM-30928'!$A$5:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3617,7 +3642,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'MM test-1'!$C$5:$C$12</c:f>
+              <c:f>'Test-MM-30928'!$C$5:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3679,7 +3704,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'MM test-1'!$A$5:$A$12</c:f>
+              <c:f>'Test-MM-30928'!$A$5:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3712,7 +3737,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'MM test-1'!$D$5:$D$12</c:f>
+              <c:f>'Test-MM-30928'!$D$5:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3774,7 +3799,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'MM test-1'!$A$5:$A$12</c:f>
+              <c:f>'Test-MM-30928'!$A$5:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3807,7 +3832,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'MM test-1'!$E$5:$E$12</c:f>
+              <c:f>'Test-MM-30928'!$E$5:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3869,7 +3894,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'MM test-1'!$A$5:$A$12</c:f>
+              <c:f>'Test-MM-30928'!$A$5:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3902,7 +3927,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'MM test-1'!$F$5:$F$12</c:f>
+              <c:f>'Test-MM-30928'!$F$5:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3943,11 +3968,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2039994296"/>
-        <c:axId val="2040001928"/>
+        <c:axId val="2146819608"/>
+        <c:axId val="2146827224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2039994296"/>
+        <c:axId val="2146819608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="64.0"/>
@@ -3994,13 +4019,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2040001928"/>
+        <c:crossAx val="2146827224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2040001928"/>
+        <c:axId val="2146827224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4051,7 +4076,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2039994296"/>
+        <c:crossAx val="2146819608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4134,16 +4159,17 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>ARCHER Scale-MM</a:t>
+              <a:t>ARCHER </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> test-1</a:t>
+              <a:rPr lang="mr-IN"/>
+              <a:t>Test-MM-30928</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4181,7 +4207,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'MM test-1'!$A$61:$A$70</c:f>
+              <c:f>'Test-MM-30928'!$A$61:$A$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4220,7 +4246,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'MM test-1'!$B$61:$B$70</c:f>
+              <c:f>'Test-MM-30928'!$B$61:$B$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4267,11 +4293,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2040059064"/>
-        <c:axId val="2094027304"/>
+        <c:axId val="2146863736"/>
+        <c:axId val="2146871592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2040059064"/>
+        <c:axId val="2146863736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4301,6 +4327,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4320,12 +4347,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2094027304"/>
+        <c:crossAx val="2146871592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2094027304"/>
+        <c:axId val="2146871592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4351,6 +4378,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4370,7 +4398,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2040059064"/>
+        <c:crossAx val="2146863736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4457,7 +4485,15 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Scale-MM test-1 showing effect of removing startup costs (dashed lines)</a:t>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="mr-IN" baseline="0"/>
+              <a:t>Test-MM-30928 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>showing effect of removing startup costs (dashed lines)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -4501,7 +4537,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'MM test-1'!$A$5:$A$12</c:f>
+              <c:f>'Test-MM-30928'!$A$5:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4534,7 +4570,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'MM test-1'!$C$5:$C$12</c:f>
+              <c:f>'Test-MM-30928'!$C$5:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4571,7 +4607,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>2TH</c:v>
+            <c:v>2 threads per process</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400">
@@ -4596,7 +4632,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'MM test-1'!$A$5:$A$12</c:f>
+              <c:f>'Test-MM-30928'!$A$5:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4629,7 +4665,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'MM test-1'!$D$5:$D$12</c:f>
+              <c:f>'Test-MM-30928'!$D$5:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4666,7 +4702,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>4TH</c:v>
+            <c:v>4 threads per process</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400">
@@ -4691,7 +4727,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'MM test-1'!$A$5:$A$12</c:f>
+              <c:f>'Test-MM-30928'!$A$5:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4724,7 +4760,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'MM test-1'!$E$5:$E$12</c:f>
+              <c:f>'Test-MM-30928'!$E$5:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4761,7 +4797,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>6TH</c:v>
+            <c:v>6 threads per process</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400">
@@ -4786,7 +4822,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'MM test-1'!$A$5:$A$12</c:f>
+              <c:f>'Test-MM-30928'!$A$5:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4819,7 +4855,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'MM test-1'!$F$5:$F$12</c:f>
+              <c:f>'Test-MM-30928'!$F$5:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4856,7 +4892,7 @@
           <c:idx val="5"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>NS MPI</c:v>
+            <c:v>No startup costs, MPI</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400">
@@ -4884,7 +4920,7 @@
           </c:dPt>
           <c:xVal>
             <c:numRef>
-              <c:f>'MM test-1'!$A$5:$A$12</c:f>
+              <c:f>'Test-MM-30928'!$A$5:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4917,7 +4953,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'MM test-1'!$K$5:$K$12</c:f>
+              <c:f>'Test-MM-30928'!$K$5:$K$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4954,7 +4990,7 @@
           <c:idx val="4"/>
           <c:order val="5"/>
           <c:tx>
-            <c:v>NS 2TH</c:v>
+            <c:v>No startup costs, 2 threads per process</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400">
@@ -4978,7 +5014,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'MM test-1'!$A$5:$A$12</c:f>
+              <c:f>'Test-MM-30928'!$A$5:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5011,7 +5047,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'MM test-1'!$L$5:$L$12</c:f>
+              <c:f>'Test-MM-30928'!$L$5:$L$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5048,7 +5084,7 @@
           <c:idx val="6"/>
           <c:order val="6"/>
           <c:tx>
-            <c:v>NS 4TH</c:v>
+            <c:v>No startup costs, 4 threads per process</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400">
@@ -5072,7 +5108,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'MM test-1'!$A$5:$A$12</c:f>
+              <c:f>'Test-MM-30928'!$A$5:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5105,7 +5141,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'MM test-1'!$M$5:$M$12</c:f>
+              <c:f>'Test-MM-30928'!$M$5:$M$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5142,7 +5178,7 @@
           <c:idx val="7"/>
           <c:order val="7"/>
           <c:tx>
-            <c:v>NS 6TH</c:v>
+            <c:v>No startup costs, 6 threads per process</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400">
@@ -5166,7 +5202,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'MM test-1'!$A$5:$A$12</c:f>
+              <c:f>'Test-MM-30928'!$A$5:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5199,7 +5235,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'MM test-1'!$N$5:$N$12</c:f>
+              <c:f>'Test-MM-30928'!$N$5:$N$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5240,11 +5276,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2096458712"/>
-        <c:axId val="2096466248"/>
+        <c:axId val="2146953080"/>
+        <c:axId val="2146960616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2096458712"/>
+        <c:axId val="2146953080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="64.0"/>
@@ -5291,13 +5327,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2096466248"/>
+        <c:crossAx val="2146960616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2096466248"/>
+        <c:axId val="2146960616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5348,7 +5384,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2096458712"/>
+        <c:crossAx val="2146953080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5359,10 +5395,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.815161406106288"/>
+          <c:x val="0.663231190123651"/>
           <c:y val="0.103421268977109"/>
-          <c:w val="0.168937568701348"/>
-          <c:h val="0.223709417919512"/>
+          <c:w val="0.320867808709465"/>
+          <c:h val="0.298058864853789"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -5431,16 +5467,21 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1400"/>
-              <a:t>ARCHER Scale-MM</a:t>
+              <a:t>ARCHER </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="mr-IN" sz="1400"/>
+              <a:t>Test-MM-30928 </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1400" baseline="0"/>
-              <a:t> test-1 startup percentage for best timing obtained</a:t>
+              <a:t>startup percentage for best timing obtained</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5453,7 +5494,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>MM test-1</c:v>
+            <c:v>Test-MM-30928</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400">
@@ -5478,7 +5519,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'MM test-1'!$A$49:$A$56</c:f>
+              <c:f>'Test-MM-30928'!$A$49:$A$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5511,7 +5552,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'MM test-1'!$C$49:$C$56</c:f>
+              <c:f>'Test-MM-30928'!$C$49:$C$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5552,11 +5593,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2040074968"/>
-        <c:axId val="2040082536"/>
+        <c:axId val="2146989368"/>
+        <c:axId val="2146996952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2040074968"/>
+        <c:axId val="2146989368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5581,6 +5622,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -5600,12 +5642,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2040082536"/>
+        <c:crossAx val="2146996952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2040082536"/>
+        <c:axId val="2146996952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5631,6 +5673,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -5650,7 +5693,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2040074968"/>
+        <c:crossAx val="2146989368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5661,10 +5704,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.755869140115764"/>
+          <c:x val="0.704544636804505"/>
           <c:y val="0.148104813994059"/>
-          <c:w val="0.169627548625958"/>
-          <c:h val="0.129538875005894"/>
+          <c:w val="0.220952051937216"/>
+          <c:h val="0.150496958838229"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -5733,16 +5776,21 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>ARCHER Scale-MM</a:t>
+              <a:t>ARCHER </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="mr-IN"/>
+              <a:t>Test-MM-30928 </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> test-1 best results</a:t>
+              <a:t>best results</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5755,7 +5803,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>MM test-1</c:v>
+            <c:v>Test-MM-30928</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400">
@@ -5781,6 +5829,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -5803,6 +5852,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -5825,6 +5875,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -5847,6 +5898,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -5869,6 +5921,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -5891,6 +5944,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -5913,6 +5967,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -5935,6 +5990,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -5976,7 +6032,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'MM test-1'!$A$49:$A$56</c:f>
+              <c:f>'Test-MM-30928'!$A$49:$A$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6009,7 +6065,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'MM test-1'!$B$49:$B$56</c:f>
+              <c:f>'Test-MM-30928'!$B$49:$B$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6050,11 +6106,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2096549816"/>
-        <c:axId val="2096555416"/>
+        <c:axId val="2147062520"/>
+        <c:axId val="2147068120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2096549816"/>
+        <c:axId val="2147062520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6079,6 +6135,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -6098,12 +6155,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2096555416"/>
+        <c:crossAx val="2147068120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2096555416"/>
+        <c:axId val="2147068120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6134,6 +6191,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -6153,7 +6211,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2096549816"/>
+        <c:crossAx val="2147062520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6164,10 +6222,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.757524769254836"/>
+          <c:x val="0.668120795744903"/>
           <c:y val="0.216967089443161"/>
-          <c:w val="0.169627548625958"/>
-          <c:h val="0.129538875005894"/>
+          <c:w val="0.259031522135892"/>
+          <c:h val="0.156484982790325"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -6240,7 +6298,13 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Scale-MM test-4</a:t>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Test-MM-297610 </a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -6284,7 +6348,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'MM test-4'!$A$5:$A$12</c:f>
+              <c:f>'Test-MM-297610'!$A$5:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6317,7 +6381,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'MM test-4'!$C$5:$C$12</c:f>
+              <c:f>'Test-MM-297610'!$C$5:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6351,7 +6415,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>2TH</c:v>
+            <c:v>2 threads per process</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400">
@@ -6376,7 +6440,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'MM test-4'!$A$5:$A$12</c:f>
+              <c:f>'Test-MM-297610'!$A$5:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6409,7 +6473,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'MM test-4'!$D$5:$D$12</c:f>
+              <c:f>'Test-MM-297610'!$D$5:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6446,7 +6510,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>4TH</c:v>
+            <c:v>4 threads per process</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400">
@@ -6471,7 +6535,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'MM test-4'!$A$5:$A$12</c:f>
+              <c:f>'Test-MM-297610'!$A$5:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6504,7 +6568,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'MM test-4'!$E$5:$E$12</c:f>
+              <c:f>'Test-MM-297610'!$E$5:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6541,7 +6605,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>6TH</c:v>
+            <c:v>6 threads per process</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400">
@@ -6566,7 +6630,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'MM test-4'!$A$5:$A$12</c:f>
+              <c:f>'Test-MM-297610'!$A$5:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6599,7 +6663,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'MM test-4'!$F$5:$F$12</c:f>
+              <c:f>'Test-MM-297610'!$F$5:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6640,11 +6704,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2040166552"/>
-        <c:axId val="2040174184"/>
+        <c:axId val="2147133736"/>
+        <c:axId val="2147141368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2040166552"/>
+        <c:axId val="2147133736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="64.0"/>
@@ -6691,13 +6755,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2040174184"/>
+        <c:crossAx val="2147141368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2040174184"/>
+        <c:axId val="2147141368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6748,7 +6812,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2040166552"/>
+        <c:crossAx val="2147133736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6759,10 +6823,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.815161406106288"/>
-          <c:y val="0.103421268977109"/>
-          <c:w val="0.137344142078394"/>
-          <c:h val="0.310569068621433"/>
+          <c:x val="0.699776758674396"/>
+          <c:y val="0.116784280027357"/>
+          <c:w val="0.252728757463009"/>
+          <c:h val="0.294978868175999"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -6831,11 +6895,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>ARCHER Scale-MM</a:t>
+              <a:t>ARCHER </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> test-4</a:t>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Test-MM-297610 </a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -6879,7 +6945,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'MM test-4'!$A$61:$A$70</c:f>
+              <c:f>'Test-MM-297610'!$A$61:$A$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -6918,7 +6984,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'MM test-4'!$B$61:$B$70</c:f>
+              <c:f>'Test-MM-297610'!$B$61:$B$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -6962,11 +7028,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2096588472"/>
-        <c:axId val="2096596296"/>
+        <c:axId val="2147178008"/>
+        <c:axId val="2147185864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2096588472"/>
+        <c:axId val="2147178008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7016,12 +7082,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2096596296"/>
+        <c:crossAx val="2147185864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2096596296"/>
+        <c:axId val="2147185864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7067,7 +7133,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2096588472"/>
+        <c:crossAx val="2147178008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7509,11 +7575,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2095525336"/>
-        <c:axId val="2095530872"/>
+        <c:axId val="2144513528"/>
+        <c:axId val="2144507976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2095525336"/>
+        <c:axId val="2144513528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7541,7 +7607,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2095530872"/>
+        <c:crossAx val="2144507976"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7549,7 +7615,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2095530872"/>
+        <c:axId val="2144507976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7578,7 +7644,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2095525336"/>
+        <c:crossAx val="2144513528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7642,7 +7708,17 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Scale-MM test-4 showing effect of removing startup costs (dashed lines)</a:t>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Test-MM-297610 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>showing effect of removing startup costs (dashed lines)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -7686,7 +7762,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'MM test-4'!$A$5:$A$12</c:f>
+              <c:f>'Test-MM-297610'!$A$5:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7719,7 +7795,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'MM test-4'!$C$5:$C$12</c:f>
+              <c:f>'Test-MM-297610'!$C$5:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7753,7 +7829,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>2TH</c:v>
+            <c:v>2 threads per process</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400">
@@ -7778,7 +7854,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'MM test-4'!$A$5:$A$12</c:f>
+              <c:f>'Test-MM-297610'!$A$5:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7811,7 +7887,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'MM test-4'!$D$5:$D$12</c:f>
+              <c:f>'Test-MM-297610'!$D$5:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7848,7 +7924,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>4TH</c:v>
+            <c:v>4 threads per process</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400">
@@ -7873,7 +7949,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'MM test-4'!$A$5:$A$12</c:f>
+              <c:f>'Test-MM-297610'!$A$5:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7906,7 +7982,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'MM test-4'!$E$5:$E$12</c:f>
+              <c:f>'Test-MM-297610'!$E$5:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7943,7 +8019,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>6TH</c:v>
+            <c:v>6 threads per process</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400">
@@ -7968,7 +8044,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'MM test-4'!$A$5:$A$12</c:f>
+              <c:f>'Test-MM-297610'!$A$5:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -8001,7 +8077,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'MM test-4'!$F$5:$F$12</c:f>
+              <c:f>'Test-MM-297610'!$F$5:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -8038,7 +8114,7 @@
           <c:idx val="5"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>NS MPI</c:v>
+            <c:v>No startup costs, MPI</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400">
@@ -8066,7 +8142,7 @@
           </c:dPt>
           <c:xVal>
             <c:numRef>
-              <c:f>'MM test-4'!$A$5:$A$12</c:f>
+              <c:f>'Test-MM-297610'!$A$5:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -8099,7 +8175,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'MM test-4'!$K$5:$K$12</c:f>
+              <c:f>'Test-MM-297610'!$K$5:$K$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -8133,7 +8209,7 @@
           <c:idx val="4"/>
           <c:order val="5"/>
           <c:tx>
-            <c:v>NS 2TH</c:v>
+            <c:v>No startup costs, 2 threads per process</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400">
@@ -8157,7 +8233,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'MM test-4'!$A$5:$A$12</c:f>
+              <c:f>'Test-MM-297610'!$A$5:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -8190,7 +8266,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'MM test-4'!$L$5:$L$12</c:f>
+              <c:f>'Test-MM-297610'!$L$5:$L$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -8227,7 +8303,7 @@
           <c:idx val="6"/>
           <c:order val="6"/>
           <c:tx>
-            <c:v>NS 4TH</c:v>
+            <c:v>No startup costs, 4 threads per process</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400">
@@ -8251,7 +8327,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'MM test-4'!$A$5:$A$12</c:f>
+              <c:f>'Test-MM-297610'!$A$5:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -8284,7 +8360,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'MM test-4'!$M$5:$M$12</c:f>
+              <c:f>'Test-MM-297610'!$M$5:$M$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -8321,7 +8397,7 @@
           <c:idx val="7"/>
           <c:order val="7"/>
           <c:tx>
-            <c:v>NS 6TH</c:v>
+            <c:v>No startup costs, 6 threads per process</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400">
@@ -8345,7 +8421,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'MM test-4'!$A$5:$A$12</c:f>
+              <c:f>'Test-MM-297610'!$A$5:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -8378,7 +8454,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'MM test-4'!$N$5:$N$12</c:f>
+              <c:f>'Test-MM-297610'!$N$5:$N$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -8419,11 +8495,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2095574536"/>
-        <c:axId val="2095582008"/>
+        <c:axId val="2147267816"/>
+        <c:axId val="2147275352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2095574536"/>
+        <c:axId val="2147267816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="64.0"/>
@@ -8470,13 +8546,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2095582008"/>
+        <c:crossAx val="2147275352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2095582008"/>
+        <c:axId val="2147275352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8527,7 +8603,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2095574536"/>
+        <c:crossAx val="2147267816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8538,10 +8614,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.815161406106288"/>
+          <c:x val="0.663231190123651"/>
           <c:y val="0.103421268977109"/>
-          <c:w val="0.168937568701348"/>
-          <c:h val="0.223709417919512"/>
+          <c:w val="0.320867808709465"/>
+          <c:h val="0.270177823961596"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -8610,11 +8686,17 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1400"/>
-              <a:t>ARCHER Scale-MM</a:t>
+              <a:t>ARCHER </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Test-MM-297610 </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1400" baseline="0"/>
-              <a:t> test-4 startup percentage for best timing obtained</a:t>
+              <a:t> startup percentage for best timing obtained</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400"/>
           </a:p>
@@ -8658,7 +8740,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'MM test-4'!$A$49:$A$56</c:f>
+              <c:f>'Test-MM-297610'!$A$49:$A$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -8691,7 +8773,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'MM test-4'!$C$49:$C$56</c:f>
+              <c:f>'Test-MM-297610'!$C$49:$C$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -8732,11 +8814,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2040192376"/>
-        <c:axId val="2040184712"/>
+        <c:axId val="2147304344"/>
+        <c:axId val="2147311896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2040192376"/>
+        <c:axId val="2147304344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8781,12 +8863,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2040184712"/>
+        <c:crossAx val="2147311896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2040184712"/>
+        <c:axId val="2147311896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8832,7 +8914,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2040192376"/>
+        <c:crossAx val="2147304344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8915,16 +8997,17 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>ARCHER Scale-MM</a:t>
+              <a:t>ARCHER Test-MM-297610 </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> test-1 best results</a:t>
+              <a:t>best results</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8963,6 +9046,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -8985,6 +9069,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -9007,6 +9092,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -9029,6 +9115,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -9051,6 +9138,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -9073,6 +9161,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -9095,6 +9184,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -9117,6 +9207,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -9158,7 +9249,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'MM test-4'!$A$49:$A$56</c:f>
+              <c:f>'Test-MM-297610'!$A$49:$A$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -9191,7 +9282,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'MM test-4'!$B$49:$B$56</c:f>
+              <c:f>'Test-MM-297610'!$B$49:$B$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -9232,11 +9323,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2095644568"/>
-        <c:axId val="2095650168"/>
+        <c:axId val="2147377368"/>
+        <c:axId val="2147382968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2095644568"/>
+        <c:axId val="2147377368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9261,6 +9352,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -9280,12 +9372,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2095650168"/>
+        <c:crossAx val="2147382968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2095650168"/>
+        <c:axId val="2147382968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9316,6 +9408,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -9335,7 +9428,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2095644568"/>
+        <c:crossAx val="2147377368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9449,7 +9542,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>QM test-1</c:v>
+                  <c:v>Test-QM-20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9756,7 +9849,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>QM test-4</c:v>
+                  <c:v>Test-QM-77</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10073,11 +10166,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2095704248"/>
-        <c:axId val="2095709864"/>
+        <c:axId val="2146796072"/>
+        <c:axId val="2146790504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2095704248"/>
+        <c:axId val="2146796072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10122,12 +10215,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2095709864"/>
+        <c:crossAx val="2146790504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2095709864"/>
+        <c:axId val="2146790504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10173,7 +10266,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2095704248"/>
+        <c:crossAx val="2146796072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10184,10 +10277,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.790831334411013"/>
+          <c:x val="0.68709690593655"/>
           <c:y val="0.160383327832524"/>
-          <c:w val="0.175675825791486"/>
-          <c:h val="0.0960089582481648"/>
+          <c:w val="0.279410265625511"/>
+          <c:h val="0.147927694139813"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -10287,7 +10380,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MM test-1</c:v>
+                  <c:v>Test-MM-30928</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10614,7 +10707,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MM test-4</c:v>
+                  <c:v>Test-MM-297610</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10955,11 +11048,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2039286696"/>
-        <c:axId val="2039292264"/>
+        <c:axId val="2146707096"/>
+        <c:axId val="2146701528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2039286696"/>
+        <c:axId val="2146707096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11004,12 +11097,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2039292264"/>
+        <c:crossAx val="2146701528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2039292264"/>
+        <c:axId val="2146701528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11055,7 +11148,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2039286696"/>
+        <c:crossAx val="2146707096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11066,10 +11159,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.766037938439513"/>
+          <c:x val="0.695790004555216"/>
           <c:y val="0.11543944085641"/>
-          <c:w val="0.186734235699876"/>
-          <c:h val="0.107041847297178"/>
+          <c:w val="0.256982169584174"/>
+          <c:h val="0.138502521454481"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -11166,7 +11259,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>QM test-1</c:v>
+                  <c:v>Test-QM-20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11269,7 +11362,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>QM test-4</c:v>
+                  <c:v>Test-QM-77</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11372,7 +11465,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MM test-1</c:v>
+                  <c:v>Test-MM-30928</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11475,7 +11568,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MM test-4</c:v>
+                  <c:v>Test-MM-297610</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11577,11 +11670,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2096619816"/>
-        <c:axId val="2096627464"/>
+        <c:axId val="2146062664"/>
+        <c:axId val="2146070392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2096619816"/>
+        <c:axId val="2146062664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11626,12 +11719,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2096627464"/>
+        <c:crossAx val="2146070392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2096627464"/>
+        <c:axId val="2146070392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11682,7 +11775,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2096619816"/>
+        <c:crossAx val="2146062664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11693,10 +11786,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.763501529051988"/>
+          <c:x val="0.694694189602446"/>
           <c:y val="0.101306647291406"/>
-          <c:w val="0.147938502212771"/>
-          <c:h val="0.198323318924542"/>
+          <c:w val="0.216745888415324"/>
+          <c:h val="0.211198844243182"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -11769,7 +11862,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Scale-QM test-1</a:t>
+              <a:t> Test-QM-20</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -11813,7 +11906,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'QM test-1'!$A$5:$A$12</c:f>
+              <c:f>'Test-QM-20'!$A$5:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -11846,7 +11939,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'QM test-1'!$C$5:$C$12</c:f>
+              <c:f>'Test-QM-20'!$C$5:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -11883,7 +11976,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>2TH</c:v>
+            <c:v>2 threads per process</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400">
@@ -11908,7 +12001,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'QM test-1'!$A$5:$A$12</c:f>
+              <c:f>'Test-QM-20'!$A$5:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -11941,7 +12034,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'QM test-1'!$D$5:$D$12</c:f>
+              <c:f>'Test-QM-20'!$D$5:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -11978,7 +12071,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>4TH</c:v>
+            <c:v>4 threads per process</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400">
@@ -12003,7 +12096,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'QM test-1'!$A$5:$A$12</c:f>
+              <c:f>'Test-QM-20'!$A$5:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -12036,7 +12129,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'QM test-1'!$E$5:$E$12</c:f>
+              <c:f>'Test-QM-20'!$E$5:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -12073,7 +12166,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>6TH</c:v>
+            <c:v>6 threads per process</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400">
@@ -12098,7 +12191,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'QM test-1'!$A$5:$A$12</c:f>
+              <c:f>'Test-QM-20'!$A$5:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -12131,7 +12224,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'QM test-1'!$F$5:$F$12</c:f>
+              <c:f>'Test-QM-20'!$F$5:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -12172,11 +12265,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2094933960"/>
-        <c:axId val="2094941432"/>
+        <c:axId val="2144442856"/>
+        <c:axId val="2144435592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2094933960"/>
+        <c:axId val="2144442856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="64.0"/>
@@ -12223,13 +12316,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2094941432"/>
+        <c:crossAx val="2144435592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2094941432"/>
+        <c:axId val="2144435592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12280,7 +12373,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2094933960"/>
+        <c:crossAx val="2144442856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12291,10 +12384,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.815161406106288"/>
-          <c:y val="0.103421268977109"/>
-          <c:w val="0.137344142078394"/>
-          <c:h val="0.310569068621433"/>
+          <c:x val="0.710765769663407"/>
+          <c:y val="0.145737509426021"/>
+          <c:w val="0.241739746473998"/>
+          <c:h val="0.237072409378672"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -12363,16 +12456,19 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>ARCHER Scale-QM</a:t>
+              <a:t>ARCHER Test-QM-20</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> test-1</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.30520297752516"/>
+          <c:y val="0.0239520958083832"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -12410,7 +12506,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'QM test-1'!$A$61:$A$70</c:f>
+              <c:f>'Test-QM-20'!$A$61:$A$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -12449,7 +12545,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'QM test-1'!$B$61:$B$70</c:f>
+              <c:f>'Test-QM-20'!$B$61:$B$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -12496,11 +12592,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2094999416"/>
-        <c:axId val="2095007144"/>
+        <c:axId val="2143380712"/>
+        <c:axId val="2143375352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2094999416"/>
+        <c:axId val="2143380712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12530,6 +12626,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -12549,12 +12646,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2095007144"/>
+        <c:crossAx val="2143375352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2095007144"/>
+        <c:axId val="2143375352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12580,6 +12677,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -12599,7 +12697,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2094999416"/>
+        <c:crossAx val="2143380712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12686,7 +12784,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Scale-QM test-1 showing effect of removing startup costs (dashed lines)</a:t>
+              <a:t> Test-QM-20 showing effect of removing startup costs (dashed lines)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -12705,7 +12803,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>MPI</c:v>
+            <c:v>No startup costs, MPI</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400">
@@ -12730,7 +12828,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'QM test-1'!$A$5:$A$12</c:f>
+              <c:f>'Test-QM-20'!$A$5:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -12763,7 +12861,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'QM test-1'!$C$5:$C$12</c:f>
+              <c:f>'Test-QM-20'!$C$5:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -12800,7 +12898,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>2TH</c:v>
+            <c:v>2 threads per process</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400">
@@ -12825,7 +12923,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'QM test-1'!$A$5:$A$12</c:f>
+              <c:f>'Test-QM-20'!$A$5:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -12858,7 +12956,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'QM test-1'!$D$5:$D$12</c:f>
+              <c:f>'Test-QM-20'!$D$5:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -12895,7 +12993,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>4TH</c:v>
+            <c:v>4 threads per process</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400">
@@ -12920,7 +13018,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'QM test-1'!$A$5:$A$12</c:f>
+              <c:f>'Test-QM-20'!$A$5:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -12953,7 +13051,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'QM test-1'!$E$5:$E$12</c:f>
+              <c:f>'Test-QM-20'!$E$5:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -12990,7 +13088,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>6TH</c:v>
+            <c:v>6 threads per process</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400">
@@ -13015,7 +13113,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'QM test-1'!$A$5:$A$12</c:f>
+              <c:f>'Test-QM-20'!$A$5:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -13048,7 +13146,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'QM test-1'!$F$5:$F$12</c:f>
+              <c:f>'Test-QM-20'!$F$5:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -13085,7 +13183,7 @@
           <c:idx val="5"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>NS MPI</c:v>
+            <c:v>No startup costs, MPI</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400">
@@ -13113,7 +13211,7 @@
           </c:dPt>
           <c:xVal>
             <c:numRef>
-              <c:f>'QM test-1'!$A$5:$A$12</c:f>
+              <c:f>'Test-QM-20'!$A$5:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -13146,7 +13244,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'QM test-1'!$K$5:$K$12</c:f>
+              <c:f>'Test-QM-20'!$K$5:$K$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -13183,7 +13281,7 @@
           <c:idx val="4"/>
           <c:order val="5"/>
           <c:tx>
-            <c:v>NS 2TH</c:v>
+            <c:v>No startup costs, 2 threads per process</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400">
@@ -13207,7 +13305,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'QM test-1'!$A$5:$A$12</c:f>
+              <c:f>'Test-QM-20'!$A$5:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -13240,7 +13338,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'QM test-1'!$L$5:$L$12</c:f>
+              <c:f>'Test-QM-20'!$L$5:$L$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -13277,7 +13375,7 @@
           <c:idx val="6"/>
           <c:order val="6"/>
           <c:tx>
-            <c:v>NS 4TH</c:v>
+            <c:v>No startup costs, 4 threads per process</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400">
@@ -13301,7 +13399,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'QM test-1'!$A$5:$A$12</c:f>
+              <c:f>'Test-QM-20'!$A$5:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -13334,7 +13432,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'QM test-1'!$M$5:$M$12</c:f>
+              <c:f>'Test-QM-20'!$M$5:$M$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -13371,7 +13469,7 @@
           <c:idx val="7"/>
           <c:order val="7"/>
           <c:tx>
-            <c:v>NS 6TH</c:v>
+            <c:v>No startup costs, 6 threads per process</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400">
@@ -13395,7 +13493,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'QM test-1'!$A$5:$A$12</c:f>
+              <c:f>'Test-QM-20'!$A$5:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -13428,7 +13526,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'QM test-1'!$N$5:$N$12</c:f>
+              <c:f>'Test-QM-20'!$N$5:$N$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -13469,11 +13567,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2094247384"/>
-        <c:axId val="2094239864"/>
+        <c:axId val="2144422856"/>
+        <c:axId val="2144415336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2094247384"/>
+        <c:axId val="2144422856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="64.0"/>
@@ -13520,13 +13618,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2094239864"/>
+        <c:crossAx val="2144415336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2094239864"/>
+        <c:axId val="2144415336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13577,7 +13675,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2094247384"/>
+        <c:crossAx val="2144422856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13588,10 +13686,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.790254851393887"/>
-          <c:y val="0.110856189444721"/>
-          <c:w val="0.180145517302243"/>
-          <c:h val="0.25344919942628"/>
+          <c:x val="0.610927329600612"/>
+          <c:y val="0.11643239762316"/>
+          <c:w val="0.354491719045704"/>
+          <c:h val="0.279471504258994"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -13660,16 +13758,17 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1400"/>
-              <a:t>ARCHER Scale-QM</a:t>
+              <a:t>ARCHER Test-QM-20</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1400" baseline="0"/>
-              <a:t> test-1 startup percentage for best timing obtained</a:t>
+              <a:t> startup percentage for best timing obtained</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -13682,7 +13781,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>QM test-1</c:v>
+            <c:v>Test-QM-20</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400">
@@ -13707,7 +13806,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'QM test-1'!$A$49:$A$56</c:f>
+              <c:f>'Test-QM-20'!$A$49:$A$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -13740,7 +13839,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'QM test-1'!$C$49:$C$56</c:f>
+              <c:f>'Test-QM-20'!$C$49:$C$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -13781,11 +13880,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2094209384"/>
-        <c:axId val="2094204296"/>
+        <c:axId val="2144350184"/>
+        <c:axId val="2144345080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2094209384"/>
+        <c:axId val="2144350184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13810,6 +13909,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -13829,12 +13929,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2094204296"/>
+        <c:crossAx val="2144345080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2094204296"/>
+        <c:axId val="2144345080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13860,6 +13960,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -13879,7 +13980,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2094209384"/>
+        <c:crossAx val="2144350184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13962,16 +14063,17 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>ARCHER Scale-QM</a:t>
+              <a:t>ARCHER Test-QM-20</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> test-1 best results</a:t>
+              <a:t> best results</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -13984,7 +14086,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>QM test-1</c:v>
+            <c:v>Test-QM-20</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400">
@@ -14010,6 +14112,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -14032,6 +14135,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -14054,6 +14158,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -14076,6 +14181,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -14098,6 +14204,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -14120,6 +14227,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -14142,6 +14250,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -14164,6 +14273,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -14205,7 +14315,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'QM test-1'!$A$49:$A$56</c:f>
+              <c:f>'Test-QM-20'!$A$49:$A$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -14238,7 +14348,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'QM test-1'!$B$49:$B$56</c:f>
+              <c:f>'Test-QM-20'!$B$49:$B$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -14279,11 +14389,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2094138728"/>
-        <c:axId val="2094133128"/>
+        <c:axId val="2145827160"/>
+        <c:axId val="2145832760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2094138728"/>
+        <c:axId val="2145827160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14308,6 +14418,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -14327,12 +14438,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2094133128"/>
+        <c:crossAx val="2145832760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2094133128"/>
+        <c:axId val="2145832760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14363,6 +14474,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -14382,7 +14494,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2094138728"/>
+        <c:crossAx val="2145827160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14469,7 +14581,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Scale-QM test-4</a:t>
+              <a:t> Test-QM-77</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -14513,7 +14625,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'QM test-4'!$A$5:$A$12</c:f>
+              <c:f>'Test-QM-77'!$A$5:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -14546,7 +14658,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'QM test-4'!$C$5:$C$12</c:f>
+              <c:f>'Test-QM-77'!$C$5:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -14583,7 +14695,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>2TH</c:v>
+            <c:v>2 threads per process</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400">
@@ -14608,7 +14720,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'QM test-4'!$A$5:$A$12</c:f>
+              <c:f>'Test-QM-77'!$A$5:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -14641,7 +14753,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'QM test-4'!$D$5:$D$12</c:f>
+              <c:f>'Test-QM-77'!$D$5:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -14678,7 +14790,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>4TH</c:v>
+            <c:v>4 threads per process</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400">
@@ -14703,7 +14815,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'QM test-4'!$A$5:$A$12</c:f>
+              <c:f>'Test-QM-77'!$A$5:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -14736,7 +14848,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'QM test-4'!$E$5:$E$12</c:f>
+              <c:f>'Test-QM-77'!$E$5:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -14773,7 +14885,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>6TH</c:v>
+            <c:v>6 threads per process</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400">
@@ -14798,7 +14910,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'QM test-4'!$A$5:$A$12</c:f>
+              <c:f>'Test-QM-77'!$A$5:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -14831,7 +14943,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'QM test-4'!$F$5:$F$12</c:f>
+              <c:f>'Test-QM-77'!$F$5:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -14872,11 +14984,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2039935272"/>
-        <c:axId val="2039942904"/>
+        <c:axId val="2145897096"/>
+        <c:axId val="2145904728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2039935272"/>
+        <c:axId val="2145897096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="64.0"/>
@@ -14923,13 +15035,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2039942904"/>
+        <c:crossAx val="2145904728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2039942904"/>
+        <c:axId val="2145904728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14980,7 +15092,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2039935272"/>
+        <c:crossAx val="2145897096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14991,10 +15103,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.815161406106288"/>
+          <c:x val="0.699776758674396"/>
           <c:y val="0.103421268977109"/>
-          <c:w val="0.137344142078394"/>
-          <c:h val="0.310569068621433"/>
+          <c:w val="0.252728757463009"/>
+          <c:h val="0.279388667730565"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -15063,16 +15175,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>ARCHER Scale-QM</a:t>
+              <a:t>ARCHER Test-QM-77</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> test-4</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -15110,7 +15218,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'QM test-4'!$A$61:$A$70</c:f>
+              <c:f>'Test-QM-77'!$A$61:$A$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -15149,7 +15257,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'QM test-4'!$B$61:$B$70</c:f>
+              <c:f>'Test-QM-77'!$B$61:$B$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -15196,11 +15304,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2039042952"/>
-        <c:axId val="2039050904"/>
+        <c:axId val="2145941320"/>
+        <c:axId val="2145949144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2039042952"/>
+        <c:axId val="2145941320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15230,6 +15338,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -15249,12 +15358,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2039050904"/>
+        <c:crossAx val="2145949144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2039050904"/>
+        <c:axId val="2145949144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15280,6 +15389,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -15299,7 +15409,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2039042952"/>
+        <c:crossAx val="2145941320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -24356,15 +24466,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="3" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -24380,16 +24490,16 @@
     </row>
     <row r="2" spans="1:18">
       <c r="C2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="O2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -25254,7 +25364,7 @@
         <v>30</v>
       </c>
       <c r="C48" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D48" t="s">
         <v>27</v>
@@ -25390,15 +25500,15 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
+        <v>39</v>
+      </c>
+      <c r="B60" t="s">
         <v>40</v>
-      </c>
-      <c r="B60" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -25497,15 +25607,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R70"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48:D56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="3" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -25521,16 +25631,16 @@
     </row>
     <row r="2" spans="1:18">
       <c r="C2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="O2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -26373,7 +26483,7 @@
         <v>30</v>
       </c>
       <c r="C48" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D48" t="s">
         <v>27</v>
@@ -26509,15 +26619,15 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
+        <v>39</v>
+      </c>
+      <c r="B60" t="s">
         <v>40</v>
-      </c>
-      <c r="B60" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -26616,15 +26726,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R70"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48:D56"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="3" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -26640,16 +26748,16 @@
     </row>
     <row r="2" spans="1:18">
       <c r="C2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="O2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -27492,7 +27600,7 @@
         <v>30</v>
       </c>
       <c r="C48" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D48" t="s">
         <v>27</v>
@@ -27628,15 +27736,15 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
+        <v>39</v>
+      </c>
+      <c r="B60" t="s">
         <v>40</v>
-      </c>
-      <c r="B60" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -27735,15 +27843,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48:D56"/>
-    </sheetView>
+    <sheetView topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -27759,16 +27865,16 @@
     </row>
     <row r="2" spans="1:18">
       <c r="C2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="O2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -28364,7 +28470,7 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -28598,7 +28704,7 @@
         <v>30</v>
       </c>
       <c r="C48" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D48" t="s">
         <v>27</v>
@@ -28734,15 +28840,15 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
+        <v>39</v>
+      </c>
+      <c r="B60" t="s">
         <v>40</v>
-      </c>
-      <c r="B60" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -28839,8 +28945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -28853,41 +28959,41 @@
   <sheetData>
     <row r="1" spans="1:6" s="15" customFormat="1" ht="18">
       <c r="A1" s="15" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="17" customFormat="1">
-      <c r="A2" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
+    <row r="2" spans="1:6" s="16" customFormat="1">
+      <c r="A2" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="12" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" t="s">
         <v>46</v>
-      </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -29099,27 +29205,27 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="12" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" t="s">
         <v>46</v>
-      </c>
-      <c r="B16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -29331,27 +29437,27 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="12" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" t="s">
         <v>46</v>
-      </c>
-      <c r="B29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -29563,27 +29669,27 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="12" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" t="s">
+        <v>43</v>
+      </c>
+      <c r="E42" t="s">
+        <v>45</v>
+      </c>
+      <c r="F42" t="s">
         <v>46</v>
-      </c>
-      <c r="B42" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" t="s">
-        <v>44</v>
-      </c>
-      <c r="D42" t="s">
-        <v>45</v>
-      </c>
-      <c r="E42" t="s">
-        <v>47</v>
-      </c>
-      <c r="F42" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -29795,27 +29901,27 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="12" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
+        <v>44</v>
+      </c>
+      <c r="B54" t="s">
+        <v>41</v>
+      </c>
+      <c r="C54" t="s">
+        <v>42</v>
+      </c>
+      <c r="D54" t="s">
+        <v>43</v>
+      </c>
+      <c r="E54" t="s">
+        <v>45</v>
+      </c>
+      <c r="F54" t="s">
         <v>46</v>
-      </c>
-      <c r="B54" t="s">
-        <v>43</v>
-      </c>
-      <c r="C54" t="s">
-        <v>44</v>
-      </c>
-      <c r="D54" t="s">
-        <v>45</v>
-      </c>
-      <c r="E54" t="s">
-        <v>47</v>
-      </c>
-      <c r="F54" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -30027,27 +30133,27 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
+        <v>44</v>
+      </c>
+      <c r="B66" t="s">
+        <v>41</v>
+      </c>
+      <c r="C66" t="s">
+        <v>42</v>
+      </c>
+      <c r="D66" t="s">
+        <v>43</v>
+      </c>
+      <c r="E66" t="s">
+        <v>45</v>
+      </c>
+      <c r="F66" t="s">
         <v>46</v>
-      </c>
-      <c r="B66" t="s">
-        <v>43</v>
-      </c>
-      <c r="C66" t="s">
-        <v>44</v>
-      </c>
-      <c r="D66" t="s">
-        <v>45</v>
-      </c>
-      <c r="E66" t="s">
-        <v>47</v>
-      </c>
-      <c r="F66" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -30275,509 +30381,509 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3:S10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="B1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="str">
-        <f>'QM test-1'!A48</f>
+        <f>'Test-QM-20'!A48</f>
         <v>Nodes</v>
       </c>
       <c r="B2" t="str">
-        <f>'QM test-1'!B48</f>
+        <f>'Test-QM-20'!B48</f>
         <v>ARCHER best time</v>
       </c>
       <c r="C2" t="str">
-        <f>'QM test-1'!C48</f>
+        <f>'Test-QM-20'!C48</f>
         <v>Startup percentage</v>
       </c>
       <c r="D2" t="str">
-        <f>'QM test-1'!D48</f>
+        <f>'Test-QM-20'!D48</f>
         <v>Config</v>
       </c>
       <c r="E2" t="str">
-        <f>'QM test-4'!B48</f>
+        <f>'Test-QM-77'!B48</f>
         <v>ARCHER best time</v>
       </c>
       <c r="F2" t="str">
-        <f>'QM test-4'!C48</f>
+        <f>'Test-QM-77'!C48</f>
         <v>Startup percentage</v>
       </c>
       <c r="G2" t="str">
-        <f>'QM test-4'!D48</f>
+        <f>'Test-QM-77'!D48</f>
         <v>Config</v>
       </c>
       <c r="H2" t="str">
-        <f>'MM test-1'!B48</f>
+        <f>'Test-MM-30928'!B48</f>
         <v>ARCHER best time</v>
       </c>
       <c r="I2" t="str">
-        <f>'MM test-1'!C48</f>
+        <f>'Test-MM-30928'!C48</f>
         <v>Startup percentage</v>
       </c>
       <c r="J2" t="str">
-        <f>'MM test-1'!D48</f>
+        <f>'Test-MM-30928'!D48</f>
         <v>Config</v>
       </c>
       <c r="K2" t="str">
-        <f>'MM test-4'!B48</f>
+        <f>'Test-MM-297610'!B48</f>
         <v>ARCHER best time</v>
       </c>
       <c r="L2" t="str">
-        <f>'MM test-4'!C48</f>
+        <f>'Test-MM-297610'!C48</f>
         <v>Startup percentage</v>
       </c>
       <c r="M2" t="str">
-        <f>'MM test-4'!D48</f>
+        <f>'Test-MM-297610'!D48</f>
         <v>Config</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3">
-        <f>'QM test-1'!A49</f>
+        <f>'Test-QM-20'!A49</f>
         <v>2</v>
       </c>
       <c r="B3">
-        <f>'QM test-1'!B49</f>
+        <f>'Test-QM-20'!B49</f>
         <v>824.30499999999995</v>
       </c>
       <c r="C3">
-        <f>'QM test-1'!C49</f>
+        <f>'Test-QM-20'!C49</f>
         <v>31.289995814655985</v>
       </c>
       <c r="D3" t="str">
-        <f>'QM test-1'!D49</f>
+        <f>'Test-QM-20'!D49</f>
         <v>MPI</v>
       </c>
       <c r="E3">
-        <f>'QM test-4'!B49</f>
+        <f>'Test-QM-77'!B49</f>
         <v>1183.1300000000001</v>
       </c>
       <c r="F3">
-        <f>'QM test-4'!C49</f>
+        <f>'Test-QM-77'!C49</f>
         <v>34.678775789642721</v>
       </c>
       <c r="G3" t="str">
-        <f>'QM test-4'!D49</f>
+        <f>'Test-QM-77'!D49</f>
         <v>MPI</v>
       </c>
       <c r="H3">
-        <f>'MM test-1'!B49</f>
+        <f>'Test-MM-30928'!B49</f>
         <v>876.36</v>
       </c>
       <c r="I3">
-        <f>'MM test-1'!C49</f>
+        <f>'Test-MM-30928'!C49</f>
         <v>30.701424072299055</v>
       </c>
       <c r="J3" t="str">
-        <f>'MM test-1'!D49</f>
+        <f>'Test-MM-30928'!D49</f>
         <v>MPI</v>
       </c>
       <c r="K3">
-        <f>'MM test-4'!B49</f>
+        <f>'Test-MM-297610'!B49</f>
         <v>1535.654</v>
       </c>
       <c r="L3">
-        <f>'MM test-4'!C49</f>
+        <f>'Test-MM-297610'!C49</f>
         <v>24.91485712276333</v>
       </c>
       <c r="M3" t="str">
-        <f>'MM test-4'!D49</f>
+        <f>'Test-MM-297610'!D49</f>
         <v>2TH</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4">
-        <f>'QM test-1'!A50</f>
+        <f>'Test-QM-20'!A50</f>
         <v>4</v>
       </c>
       <c r="B4">
-        <f>'QM test-1'!B50</f>
+        <f>'Test-QM-20'!B50</f>
         <v>572.59799999999996</v>
       </c>
       <c r="C4">
-        <f>'QM test-1'!C50</f>
+        <f>'Test-QM-20'!C50</f>
         <v>28.59527975997122</v>
       </c>
       <c r="D4" t="str">
-        <f>'QM test-1'!D50</f>
+        <f>'Test-QM-20'!D50</f>
         <v>MPI</v>
       </c>
       <c r="E4">
-        <f>'QM test-4'!B50</f>
+        <f>'Test-QM-77'!B50</f>
         <v>778.12099999999998</v>
       </c>
       <c r="F4">
-        <f>'QM test-4'!C50</f>
+        <f>'Test-QM-77'!C50</f>
         <v>31.811247865049268</v>
       </c>
       <c r="G4" t="str">
-        <f>'QM test-4'!D50</f>
+        <f>'Test-QM-77'!D50</f>
         <v>MPI</v>
       </c>
       <c r="H4">
-        <f>'MM test-1'!B50</f>
+        <f>'Test-MM-30928'!B50</f>
         <v>612.60599999999999</v>
       </c>
       <c r="I4">
-        <f>'MM test-1'!C50</f>
+        <f>'Test-MM-30928'!C50</f>
         <v>28.08313989742183</v>
       </c>
       <c r="J4" t="str">
-        <f>'MM test-1'!D50</f>
+        <f>'Test-MM-30928'!D50</f>
         <v>MPI</v>
       </c>
       <c r="K4">
-        <f>'MM test-4'!B50</f>
+        <f>'Test-MM-297610'!B50</f>
         <v>830.35799999999995</v>
       </c>
       <c r="L4">
-        <f>'MM test-4'!C50</f>
+        <f>'Test-MM-297610'!C50</f>
         <v>23.767579766799383</v>
       </c>
       <c r="M4" t="str">
-        <f>'MM test-4'!D50</f>
+        <f>'Test-MM-297610'!D50</f>
         <v>MPI</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5">
-        <f>'QM test-1'!A51</f>
+        <f>'Test-QM-20'!A51</f>
         <v>6</v>
       </c>
       <c r="B5">
-        <f>'QM test-1'!B51</f>
+        <f>'Test-QM-20'!B51</f>
         <v>480.44600000000003</v>
       </c>
       <c r="C5">
-        <f>'QM test-1'!C51</f>
+        <f>'Test-QM-20'!C51</f>
         <v>29.821249422411679</v>
       </c>
       <c r="D5" t="str">
-        <f>'QM test-1'!D51</f>
+        <f>'Test-QM-20'!D51</f>
         <v>6TH</v>
       </c>
       <c r="E5">
-        <f>'QM test-4'!B51</f>
+        <f>'Test-QM-77'!B51</f>
         <v>622.04399999999998</v>
       </c>
       <c r="F5">
-        <f>'QM test-4'!C51</f>
+        <f>'Test-QM-77'!C51</f>
         <v>30.176161171878519</v>
       </c>
       <c r="G5" t="str">
-        <f>'QM test-4'!D51</f>
+        <f>'Test-QM-77'!D51</f>
         <v>MPI</v>
       </c>
       <c r="H5">
-        <f>'MM test-1'!B51</f>
+        <f>'Test-MM-30928'!B51</f>
         <v>493.81799999999998</v>
       </c>
       <c r="I5">
-        <f>'MM test-1'!C51</f>
+        <f>'Test-MM-30928'!C51</f>
         <v>29.044506275591413</v>
       </c>
       <c r="J5" t="str">
-        <f>'MM test-1'!D51</f>
+        <f>'Test-MM-30928'!D51</f>
         <v>4TH</v>
       </c>
       <c r="K5">
-        <f>'MM test-4'!B51</f>
+        <f>'Test-MM-297610'!B51</f>
         <v>714.27300000000002</v>
       </c>
       <c r="L5">
-        <f>'MM test-4'!C51</f>
+        <f>'Test-MM-297610'!C51</f>
         <v>22.63770295111253</v>
       </c>
       <c r="M5" t="str">
-        <f>'MM test-4'!D51</f>
+        <f>'Test-MM-297610'!D51</f>
         <v>MPI</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6">
-        <f>'QM test-1'!A52</f>
+        <f>'Test-QM-20'!A52</f>
         <v>8</v>
       </c>
       <c r="B6">
-        <f>'QM test-1'!B52</f>
+        <f>'Test-QM-20'!B52</f>
         <v>412.01400000000001</v>
       </c>
       <c r="C6">
-        <f>'QM test-1'!C52</f>
+        <f>'Test-QM-20'!C52</f>
         <v>28.2694277378924</v>
       </c>
       <c r="D6" t="str">
-        <f>'QM test-1'!D52</f>
+        <f>'Test-QM-20'!D52</f>
         <v>6TH</v>
       </c>
       <c r="E6">
-        <f>'QM test-4'!B52</f>
+        <f>'Test-QM-77'!B52</f>
         <v>568.40700000000004</v>
       </c>
       <c r="F6">
-        <f>'QM test-4'!C52</f>
+        <f>'Test-QM-77'!C52</f>
         <v>32.196647824534182</v>
       </c>
       <c r="G6" t="str">
-        <f>'QM test-4'!D52</f>
+        <f>'Test-QM-77'!D52</f>
         <v>6TH</v>
       </c>
       <c r="H6">
-        <f>'MM test-1'!B52</f>
+        <f>'Test-MM-30928'!B52</f>
         <v>414.56799999999998</v>
       </c>
       <c r="I6">
-        <f>'MM test-1'!C52</f>
+        <f>'Test-MM-30928'!C52</f>
         <v>29.166505856699025</v>
       </c>
       <c r="J6" t="str">
-        <f>'MM test-1'!D52</f>
+        <f>'Test-MM-30928'!D52</f>
         <v>6TH</v>
       </c>
       <c r="K6">
-        <f>'MM test-4'!B52</f>
+        <f>'Test-MM-297610'!B52</f>
         <v>633.024</v>
       </c>
       <c r="L6">
-        <f>'MM test-4'!C52</f>
+        <f>'Test-MM-297610'!C52</f>
         <v>21.284343089677488</v>
       </c>
       <c r="M6" t="str">
-        <f>'MM test-4'!D52</f>
+        <f>'Test-MM-297610'!D52</f>
         <v>MPI</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7">
-        <f>'QM test-1'!A53</f>
+        <f>'Test-QM-20'!A53</f>
         <v>10</v>
       </c>
       <c r="B7">
-        <f>'QM test-1'!B53</f>
+        <f>'Test-QM-20'!B53</f>
         <v>367.322</v>
       </c>
       <c r="C7">
-        <f>'QM test-1'!C53</f>
+        <f>'Test-QM-20'!C53</f>
         <v>28.20277576622146</v>
       </c>
       <c r="D7" t="str">
-        <f>'QM test-1'!D53</f>
+        <f>'Test-QM-20'!D53</f>
         <v>6TH</v>
       </c>
       <c r="E7">
-        <f>'QM test-4'!B53</f>
+        <f>'Test-QM-77'!B53</f>
         <v>529.70500000000004</v>
       </c>
       <c r="F7">
-        <f>'QM test-4'!C53</f>
+        <f>'Test-QM-77'!C53</f>
         <v>31.689336517495587</v>
       </c>
       <c r="G7" t="str">
-        <f>'QM test-4'!D53</f>
+        <f>'Test-QM-77'!D53</f>
         <v>6TH</v>
       </c>
       <c r="H7">
-        <f>'MM test-1'!B53</f>
+        <f>'Test-MM-30928'!B53</f>
         <v>386.137</v>
       </c>
       <c r="I7">
-        <f>'MM test-1'!C53</f>
+        <f>'Test-MM-30928'!C53</f>
         <v>28.710535379929919</v>
       </c>
       <c r="J7" t="str">
-        <f>'MM test-1'!D53</f>
+        <f>'Test-MM-30928'!D53</f>
         <v>6TH</v>
       </c>
       <c r="K7">
-        <f>'MM test-4'!B53</f>
+        <f>'Test-MM-297610'!B53</f>
         <v>620.22299999999996</v>
       </c>
       <c r="L7">
-        <f>'MM test-4'!C53</f>
+        <f>'Test-MM-297610'!C53</f>
         <v>21.23413675403847</v>
       </c>
       <c r="M7" t="str">
-        <f>'MM test-4'!D53</f>
+        <f>'Test-MM-297610'!D53</f>
         <v>MPI</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8">
-        <f>'QM test-1'!A54</f>
+        <f>'Test-QM-20'!A54</f>
         <v>16</v>
       </c>
       <c r="B8">
-        <f>'QM test-1'!B54</f>
+        <f>'Test-QM-20'!B54</f>
         <v>301.21499999999997</v>
       </c>
       <c r="C8">
-        <f>'QM test-1'!C54</f>
+        <f>'Test-QM-20'!C54</f>
         <v>26.388692462194779</v>
       </c>
       <c r="D8" t="str">
-        <f>'QM test-1'!D54</f>
+        <f>'Test-QM-20'!D54</f>
         <v>6TH</v>
       </c>
       <c r="E8">
-        <f>'QM test-4'!B54</f>
+        <f>'Test-QM-77'!B54</f>
         <v>400.61799999999999</v>
       </c>
       <c r="F8">
-        <f>'QM test-4'!C54</f>
+        <f>'Test-QM-77'!C54</f>
         <v>29.847635403301897</v>
       </c>
       <c r="G8" t="str">
-        <f>'QM test-4'!D54</f>
+        <f>'Test-QM-77'!D54</f>
         <v>6TH</v>
       </c>
       <c r="H8">
-        <f>'MM test-1'!B54</f>
+        <f>'Test-MM-30928'!B54</f>
         <v>308.13</v>
       </c>
       <c r="I8">
-        <f>'MM test-1'!C54</f>
+        <f>'Test-MM-30928'!C54</f>
         <v>26.884139811118686</v>
       </c>
       <c r="J8" t="str">
-        <f>'MM test-1'!D54</f>
+        <f>'Test-MM-30928'!D54</f>
         <v>6TH</v>
       </c>
       <c r="K8">
-        <f>'MM test-4'!B54</f>
+        <f>'Test-MM-297610'!B54</f>
         <v>570.69200000000001</v>
       </c>
       <c r="L8">
-        <f>'MM test-4'!C54</f>
+        <f>'Test-MM-297610'!C54</f>
         <v>21.0129106418173</v>
       </c>
       <c r="M8" t="str">
-        <f>'MM test-4'!D54</f>
+        <f>'Test-MM-297610'!D54</f>
         <v>MPI</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9">
-        <f>'QM test-1'!A55</f>
+        <f>'Test-QM-20'!A55</f>
         <v>32</v>
       </c>
       <c r="B9">
-        <f>'QM test-1'!B55</f>
+        <f>'Test-QM-20'!B55</f>
         <v>253.65199999999999</v>
       </c>
       <c r="C9">
-        <f>'QM test-1'!C55</f>
+        <f>'Test-QM-20'!C55</f>
         <v>24.947329411950232</v>
       </c>
       <c r="D9" t="str">
-        <f>'QM test-1'!D55</f>
+        <f>'Test-QM-20'!D55</f>
         <v>6TH</v>
       </c>
       <c r="E9">
-        <f>'QM test-4'!B55</f>
+        <f>'Test-QM-77'!B55</f>
         <v>327.97</v>
       </c>
       <c r="F9">
-        <f>'QM test-4'!C55</f>
+        <f>'Test-QM-77'!C55</f>
         <v>28.28011708387962</v>
       </c>
       <c r="G9" t="str">
-        <f>'QM test-4'!D55</f>
+        <f>'Test-QM-77'!D55</f>
         <v>6TH</v>
       </c>
       <c r="H9">
-        <f>'MM test-1'!B55</f>
+        <f>'Test-MM-30928'!B55</f>
         <v>246.47200000000001</v>
       </c>
       <c r="I9">
-        <f>'MM test-1'!C55</f>
+        <f>'Test-MM-30928'!C55</f>
         <v>25.80337725989159</v>
       </c>
       <c r="J9" t="str">
-        <f>'MM test-1'!D55</f>
+        <f>'Test-MM-30928'!D55</f>
         <v>6TH</v>
       </c>
       <c r="K9">
-        <f>'MM test-4'!B55</f>
+        <f>'Test-MM-297610'!B55</f>
         <v>455.85199999999998</v>
       </c>
       <c r="L9">
-        <f>'MM test-4'!C55</f>
+        <f>'Test-MM-297610'!C55</f>
         <v>17.607710397234193</v>
       </c>
       <c r="M9" t="str">
-        <f>'MM test-4'!D55</f>
+        <f>'Test-MM-297610'!D55</f>
         <v>6TH</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10">
-        <f>'QM test-1'!A56</f>
+        <f>'Test-QM-20'!A56</f>
         <v>64</v>
       </c>
       <c r="B10">
-        <f>'QM test-1'!B56</f>
+        <f>'Test-QM-20'!B56</f>
         <v>248.04300000000001</v>
       </c>
       <c r="C10">
-        <f>'QM test-1'!C56</f>
+        <f>'Test-QM-20'!C56</f>
         <v>22.718359316731373</v>
       </c>
       <c r="D10" t="str">
-        <f>'QM test-1'!D56</f>
+        <f>'Test-QM-20'!D56</f>
         <v>6TH</v>
       </c>
       <c r="E10">
-        <f>'QM test-4'!B56</f>
+        <f>'Test-QM-77'!B56</f>
         <v>327.959</v>
       </c>
       <c r="F10">
-        <f>'QM test-4'!C56</f>
+        <f>'Test-QM-77'!C56</f>
         <v>27.187605767794143</v>
       </c>
       <c r="G10" t="str">
-        <f>'QM test-4'!D56</f>
+        <f>'Test-QM-77'!D56</f>
         <v>6TH</v>
       </c>
       <c r="H10">
-        <f>'MM test-1'!B56</f>
+        <f>'Test-MM-30928'!B56</f>
         <v>235.71799999999999</v>
       </c>
       <c r="I10">
-        <f>'MM test-1'!C56</f>
+        <f>'Test-MM-30928'!C56</f>
         <v>24.938400970651372</v>
       </c>
       <c r="J10" t="str">
-        <f>'MM test-1'!D56</f>
+        <f>'Test-MM-30928'!D56</f>
         <v>6TH</v>
       </c>
       <c r="K10">
-        <f>'MM test-4'!B56</f>
+        <f>'Test-MM-297610'!B56</f>
         <v>425.41699999999997</v>
       </c>
       <c r="L10">
-        <f>'MM test-4'!C56</f>
+        <f>'Test-MM-297610'!C56</f>
         <v>17.391853169948547</v>
       </c>
       <c r="M10" t="str">
-        <f>'MM test-4'!D56</f>
+        <f>'Test-MM-297610'!D56</f>
         <v>6TH</v>
       </c>
     </row>
